--- a/MFCcontrol/bin/Debug/GasFlowOld.xlsx
+++ b/MFCcontrol/bin/Debug/GasFlowOld.xlsx
@@ -417,7 +417,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -488,13 +488,13 @@
         <v>1000</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
       <c r="E2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F4">
         <v>0</v>
